--- a/static/excel/Mohdfazil mohdnazeer_CAR.xlsx
+++ b/static/excel/Mohdfazil mohdnazeer_CAR.xlsx
@@ -744,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>7000000</v>
+        <v>5000</v>
       </c>
       <c r="H2" t="n">
-        <v>6993721</v>
+        <v>-1279</v>
       </c>
     </row>
     <row r="3">
@@ -772,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>7000000</v>
+        <v>5000</v>
       </c>
       <c r="H3" t="n">
-        <v>6993721</v>
+        <v>-1279</v>
       </c>
     </row>
     <row r="4">
@@ -800,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>7000000</v>
+        <v>5000</v>
       </c>
       <c r="H4" t="n">
-        <v>6993721</v>
+        <v>-1279</v>
       </c>
     </row>
     <row r="5">
@@ -828,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>7000000</v>
+        <v>5000</v>
       </c>
       <c r="H5" t="n">
-        <v>6993721</v>
+        <v>-1279</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +880,7 @@
         <v>533</v>
       </c>
       <c r="C2" t="n">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +930,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Your Credit report shows that you have delinquencies in Credit Card, Others, Personal Loan, due to which you are not eligible for a Loan. We suggest you to Clear your Delinquencies in Credit Card, Others, Personal Loan, so your chances of Loan approval gets Improved as well as it will also help you to maintain Good Credit Score.</t>
+          <t>Your Credit report shows that you have delinquencies in Others, Personal Loan, Credit Card, due to which you are not eligible for a Loan. We suggest you to Clear your Delinquencies in Others, Personal Loan, Credit Card, so your chances of Loan approval gets Improved as well as it will also help you to maintain Good Credit Score.</t>
         </is>
       </c>
     </row>

--- a/static/excel/Mohdfazil mohdnazeer_CAR.xlsx
+++ b/static/excel/Mohdfazil mohdnazeer_CAR.xlsx
@@ -744,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="H2" t="n">
-        <v>-1279</v>
+        <v>18721</v>
       </c>
     </row>
     <row r="3">
@@ -772,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="H3" t="n">
-        <v>-1279</v>
+        <v>18721</v>
       </c>
     </row>
     <row r="4">
@@ -800,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="H4" t="n">
-        <v>-1279</v>
+        <v>18721</v>
       </c>
     </row>
     <row r="5">
@@ -828,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="H5" t="n">
-        <v>-1279</v>
+        <v>18721</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +880,7 @@
         <v>533</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
